--- a/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B41FF7-6A34-4F80-8801-B09A74ACEEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4366C33-D0A3-4BD6-8B22-3A81A242DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1114">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4264,15 +4264,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Piau_Im</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄍㄜ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方音符號</t>
+    <t>台語音標</t>
+  </si>
+  <si>
+    <t>TLPA_Plus</t>
+  </si>
+  <si>
+    <t>can5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>za7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziam1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciann2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7492,7 +7627,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7604,20 +7739,20 @@
         <v>1076</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="75" t="s">
         <v>1075</v>
       </c>
-      <c r="C14" s="75" t="s">
-        <v>1077</v>
+      <c r="C14" s="78" t="s">
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
@@ -7628,7 +7763,10 @@
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{AC4C5C4E-8F58-4ABD-939B-4094EF269BA9}">
-      <formula1>"方音符號, 十五音, 白話字, 台羅拼音, 閩拼方案"</formula1>
+      <formula1>"方音符號, 十五音, 台語音標, 白話字, 台羅拼音, 閩拼方案"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{7C9E85F9-89D7-4ACA-B12D-E7B8D5F0299B}">
+      <formula1>"SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7720,13 +7858,13 @@
       </c>
       <c r="H4" s="82"/>
       <c r="I4" s="82" t="s">
-        <v>462</v>
+        <v>1080</v>
       </c>
       <c r="J4" s="82" t="s">
         <v>464</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>466</v>
+        <v>1081</v>
       </c>
       <c r="L4" s="82" t="s">
         <v>876</v>
@@ -7745,7 +7883,7 @@
         <v>472</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>474</v>
+        <v>1082</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="104"/>
@@ -8042,7 +8180,7 @@
         <v>498</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>470</v>
@@ -8052,16 +8190,16 @@
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="82" t="s">
-        <v>504</v>
+        <v>1084</v>
       </c>
       <c r="J12" s="82" t="s">
         <v>458</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>506</v>
+        <v>1085</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="M12" s="82" t="s">
         <v>508</v>
@@ -8229,14 +8367,14 @@
         <v>490</v>
       </c>
       <c r="L16" s="82" t="s">
-        <v>530</v>
+        <v>1086</v>
       </c>
       <c r="M16" s="82" t="s">
         <v>532</v>
       </c>
       <c r="N16" s="82"/>
       <c r="O16" s="82" t="s">
-        <v>534</v>
+        <v>1087</v>
       </c>
       <c r="P16" s="82" t="s">
         <v>536</v>
@@ -8391,7 +8529,7 @@
         <v>490</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>546</v>
+        <v>1088</v>
       </c>
       <c r="L20" s="82" t="s">
         <v>548</v>
@@ -8401,7 +8539,7 @@
         <v>550</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>552</v>
+        <v>1089</v>
       </c>
       <c r="P20" s="82" t="s">
         <v>554</v>
@@ -8410,7 +8548,7 @@
         <v>476</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>556</v>
+        <v>1090</v>
       </c>
       <c r="S20" s="91"/>
       <c r="V20" s="104"/>
@@ -8550,7 +8688,7 @@
         <v>564</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="J24" s="82" t="s">
         <v>566</v>
@@ -8563,7 +8701,7 @@
         <v>570</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>572</v>
+        <v>1091</v>
       </c>
       <c r="O24" s="82" t="s">
         <v>482</v>
@@ -8573,7 +8711,7 @@
       </c>
       <c r="Q24" s="82"/>
       <c r="R24" s="82" t="s">
-        <v>576</v>
+        <v>1092</v>
       </c>
       <c r="S24" s="91"/>
       <c r="V24" s="60"/>
@@ -8709,7 +8847,7 @@
         <v>578</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>576</v>
+        <v>1092</v>
       </c>
       <c r="F28" s="82" t="s">
         <v>580</v>
@@ -8893,7 +9031,7 @@
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>604</v>
+        <v>1093</v>
       </c>
       <c r="I32" s="82" t="s">
         <v>606</v>
@@ -8902,7 +9040,7 @@
         <v>608</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>610</v>
+        <v>1094</v>
       </c>
       <c r="L32" s="82"/>
       <c r="M32" s="82" t="s">
@@ -9048,13 +9186,13 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>620</v>
+        <v>1095</v>
       </c>
       <c r="E36" s="82" t="s">
         <v>622</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>624</v>
+        <v>1096</v>
       </c>
       <c r="G36" s="82"/>
       <c r="H36" s="82" t="s">
@@ -9070,10 +9208,10 @@
         <v>476</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>474</v>
+        <v>1082</v>
       </c>
       <c r="M36" s="82" t="s">
-        <v>630</v>
+        <v>1097</v>
       </c>
       <c r="N36" s="82"/>
       <c r="O36" s="82" t="s">
@@ -9248,7 +9386,7 @@
         <v>652</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="R40" s="82" t="s">
         <v>654</v>
@@ -9397,7 +9535,7 @@
         <v>662</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>664</v>
+        <v>1098</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82" t="s">
@@ -9544,7 +9682,7 @@
       <c r="B48" s="56"/>
       <c r="D48" s="82"/>
       <c r="E48" s="82" t="s">
-        <v>674</v>
+        <v>1099</v>
       </c>
       <c r="F48" s="82" t="s">
         <v>676</v>
@@ -9716,14 +9854,14 @@
         <v>476</v>
       </c>
       <c r="H52" s="82" t="s">
-        <v>694</v>
+        <v>1100</v>
       </c>
       <c r="I52" s="82" t="s">
         <v>696</v>
       </c>
       <c r="J52" s="82"/>
       <c r="K52" s="82" t="s">
-        <v>698</v>
+        <v>1101</v>
       </c>
       <c r="L52" s="82" t="s">
         <v>700</v>
@@ -9735,7 +9873,7 @@
         <v>490</v>
       </c>
       <c r="O52" s="82" t="s">
-        <v>504</v>
+        <v>1084</v>
       </c>
       <c r="P52" s="82" t="s">
         <v>704</v>
@@ -9878,7 +10016,7 @@
         <v>476</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>466</v>
+        <v>1081</v>
       </c>
       <c r="H56" s="82" t="s">
         <v>614</v>
@@ -9891,7 +10029,7 @@
         <v>712</v>
       </c>
       <c r="L56" s="82" t="s">
-        <v>604</v>
+        <v>1093</v>
       </c>
       <c r="M56" s="82" t="s">
         <v>490</v>
@@ -10118,7 +10256,7 @@
       </c>
       <c r="H64" s="82"/>
       <c r="I64" s="82" t="s">
-        <v>716</v>
+        <v>1102</v>
       </c>
       <c r="J64" s="82" t="s">
         <v>616</v>
@@ -10130,7 +10268,7 @@
         <v>476</v>
       </c>
       <c r="M64" s="82" t="s">
-        <v>720</v>
+        <v>1103</v>
       </c>
       <c r="N64" s="82" t="s">
         <v>722</v>
@@ -10302,13 +10440,13 @@
         <v>738</v>
       </c>
       <c r="P68" s="82" t="s">
-        <v>740</v>
+        <v>1104</v>
       </c>
       <c r="Q68" s="82" t="s">
-        <v>674</v>
+        <v>1099</v>
       </c>
       <c r="R68" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="S68" s="91"/>
       <c r="V68" s="60"/>
@@ -10435,7 +10573,7 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="82" t="s">
-        <v>556</v>
+        <v>1090</v>
       </c>
       <c r="E72" s="82" t="s">
         <v>742</v>
@@ -10448,7 +10586,7 @@
         <v>746</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>748</v>
+        <v>1105</v>
       </c>
       <c r="J72" s="82" t="s">
         <v>476</v>
@@ -10600,14 +10738,14 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>762</v>
+        <v>1106</v>
       </c>
       <c r="E76" s="82" t="s">
         <v>764</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>466</v>
+        <v>1081</v>
       </c>
       <c r="H76" s="82" t="s">
         <v>618</v>
@@ -10635,7 +10773,7 @@
         <v>774</v>
       </c>
       <c r="Q76" s="82" t="s">
-        <v>776</v>
+        <v>1107</v>
       </c>
       <c r="R76" s="82"/>
       <c r="S76" s="91"/>
@@ -10764,13 +10902,13 @@
         <v>484</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>778</v>
+        <v>1108</v>
       </c>
       <c r="F80" s="82" t="s">
         <v>712</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>534</v>
+        <v>1087</v>
       </c>
       <c r="H80" s="82"/>
       <c r="I80" s="82" t="s">
@@ -10786,7 +10924,7 @@
         <v>476</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>782</v>
+        <v>1109</v>
       </c>
       <c r="N80" s="82" t="s">
         <v>730</v>
@@ -10955,7 +11093,7 @@
       </c>
       <c r="N84" s="82"/>
       <c r="O84" s="82" t="s">
-        <v>792</v>
+        <v>1110</v>
       </c>
       <c r="P84" s="82" t="s">
         <v>672</v>
@@ -11107,7 +11245,7 @@
         <v>800</v>
       </c>
       <c r="J88" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="K88" s="82" t="s">
         <v>802</v>
@@ -11126,7 +11264,7 @@
         <v>808</v>
       </c>
       <c r="Q88" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="R88" s="82" t="s">
         <v>810</v>
@@ -11626,7 +11764,7 @@
         <v>830</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>500</v>
+        <v>1083</v>
       </c>
       <c r="P104" s="82"/>
       <c r="Q104" s="82" t="s">
@@ -11944,7 +12082,7 @@
         <v>848</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>888</v>
+        <v>1111</v>
       </c>
       <c r="L112" s="82"/>
       <c r="M112" s="82" t="s">
@@ -12053,7 +12191,7 @@
         <v>853</v>
       </c>
       <c r="O114" s="83" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="P114" s="83" t="s">
         <v>477</v>
@@ -12094,7 +12232,7 @@
         <v>858</v>
       </c>
       <c r="F116" s="82" t="s">
-        <v>860</v>
+        <v>1112</v>
       </c>
       <c r="G116" s="82" t="s">
         <v>680</v>
@@ -12125,7 +12263,7 @@
         <v>454</v>
       </c>
       <c r="Q116" s="82" t="s">
-        <v>870</v>
+        <v>1113</v>
       </c>
       <c r="R116" s="82"/>
       <c r="S116" s="91"/>

--- a/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4366C33-D0A3-4BD6-8B22-3A81A242DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21019B86-5A7F-49F6-B86C-55E1E2C1939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-23205" yWindow="2475" windowWidth="19845" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -4268,12 +4268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台語音標</t>
-  </si>
-  <si>
-    <t>TLPA_Plus</t>
-  </si>
-  <si>
     <t>can5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4408,13 +4402,19 @@
   <si>
     <t>zin7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閩拼方案</t>
+  </si>
+  <si>
+    <t>BP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="85">
+  <fonts count="84">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -5001,12 +5001,6 @@
       <color rgb="FFFF0000"/>
       <name val="吳守禮細明台語注音"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -7626,8 +7620,8 @@
   </sheetPr>
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -7739,7 +7733,7 @@
         <v>1076</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>1078</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -7747,7 +7741,7 @@
         <v>1075</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -7780,7 +7774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC346"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
@@ -7858,13 +7852,13 @@
       </c>
       <c r="H4" s="82"/>
       <c r="I4" s="82" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="J4" s="82" t="s">
         <v>464</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="L4" s="82" t="s">
         <v>876</v>
@@ -7883,7 +7877,7 @@
         <v>472</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="S4" s="91"/>
       <c r="V4" s="104"/>
@@ -8180,7 +8174,7 @@
         <v>498</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>470</v>
@@ -8190,16 +8184,16 @@
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J12" s="82" t="s">
         <v>458</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="M12" s="82" t="s">
         <v>508</v>
@@ -8367,14 +8361,14 @@
         <v>490</v>
       </c>
       <c r="L16" s="82" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="M16" s="82" t="s">
         <v>532</v>
       </c>
       <c r="N16" s="82"/>
       <c r="O16" s="82" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="P16" s="82" t="s">
         <v>536</v>
@@ -8529,7 +8523,7 @@
         <v>490</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="L20" s="82" t="s">
         <v>548</v>
@@ -8539,7 +8533,7 @@
         <v>550</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="P20" s="82" t="s">
         <v>554</v>
@@ -8548,7 +8542,7 @@
         <v>476</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="S20" s="91"/>
       <c r="V20" s="104"/>
@@ -8688,7 +8682,7 @@
         <v>564</v>
       </c>
       <c r="I24" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="J24" s="82" t="s">
         <v>566</v>
@@ -8701,7 +8695,7 @@
         <v>570</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O24" s="82" t="s">
         <v>482</v>
@@ -8711,7 +8705,7 @@
       </c>
       <c r="Q24" s="82"/>
       <c r="R24" s="82" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="S24" s="91"/>
       <c r="V24" s="60"/>
@@ -8847,7 +8841,7 @@
         <v>578</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F28" s="82" t="s">
         <v>580</v>
@@ -9031,7 +9025,7 @@
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I32" s="82" t="s">
         <v>606</v>
@@ -9040,7 +9034,7 @@
         <v>608</v>
       </c>
       <c r="K32" s="82" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L32" s="82"/>
       <c r="M32" s="82" t="s">
@@ -9186,13 +9180,13 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="82" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E36" s="82" t="s">
         <v>622</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G36" s="82"/>
       <c r="H36" s="82" t="s">
@@ -9208,10 +9202,10 @@
         <v>476</v>
       </c>
       <c r="L36" s="82" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="M36" s="82" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N36" s="82"/>
       <c r="O36" s="82" t="s">
@@ -9386,7 +9380,7 @@
         <v>652</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="R40" s="82" t="s">
         <v>654</v>
@@ -9535,7 +9529,7 @@
         <v>662</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="L44" s="82"/>
       <c r="M44" s="82" t="s">
@@ -9682,7 +9676,7 @@
       <c r="B48" s="56"/>
       <c r="D48" s="82"/>
       <c r="E48" s="82" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F48" s="82" t="s">
         <v>676</v>
@@ -9854,14 +9848,14 @@
         <v>476</v>
       </c>
       <c r="H52" s="82" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I52" s="82" t="s">
         <v>696</v>
       </c>
       <c r="J52" s="82"/>
       <c r="K52" s="82" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="L52" s="82" t="s">
         <v>700</v>
@@ -9873,7 +9867,7 @@
         <v>490</v>
       </c>
       <c r="O52" s="82" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="P52" s="82" t="s">
         <v>704</v>
@@ -10016,7 +10010,7 @@
         <v>476</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H56" s="82" t="s">
         <v>614</v>
@@ -10029,7 +10023,7 @@
         <v>712</v>
       </c>
       <c r="L56" s="82" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="M56" s="82" t="s">
         <v>490</v>
@@ -10256,7 +10250,7 @@
       </c>
       <c r="H64" s="82"/>
       <c r="I64" s="82" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J64" s="82" t="s">
         <v>616</v>
@@ -10268,7 +10262,7 @@
         <v>476</v>
       </c>
       <c r="M64" s="82" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="N64" s="82" t="s">
         <v>722</v>
@@ -10440,13 +10434,13 @@
         <v>738</v>
       </c>
       <c r="P68" s="82" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Q68" s="82" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="R68" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="S68" s="91"/>
       <c r="V68" s="60"/>
@@ -10573,7 +10567,7 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="82" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E72" s="82" t="s">
         <v>742</v>
@@ -10586,7 +10580,7 @@
         <v>746</v>
       </c>
       <c r="I72" s="82" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J72" s="82" t="s">
         <v>476</v>
@@ -10738,14 +10732,14 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="82" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E76" s="82" t="s">
         <v>764</v>
       </c>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H76" s="82" t="s">
         <v>618</v>
@@ -10773,7 +10767,7 @@
         <v>774</v>
       </c>
       <c r="Q76" s="82" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="R76" s="82"/>
       <c r="S76" s="91"/>
@@ -10902,13 +10896,13 @@
         <v>484</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F80" s="82" t="s">
         <v>712</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H80" s="82"/>
       <c r="I80" s="82" t="s">
@@ -10924,7 +10918,7 @@
         <v>476</v>
       </c>
       <c r="M80" s="82" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="N80" s="82" t="s">
         <v>730</v>
@@ -11093,7 +11087,7 @@
       </c>
       <c r="N84" s="82"/>
       <c r="O84" s="82" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="P84" s="82" t="s">
         <v>672</v>
@@ -11245,7 +11239,7 @@
         <v>800</v>
       </c>
       <c r="J88" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K88" s="82" t="s">
         <v>802</v>
@@ -11264,7 +11258,7 @@
         <v>808</v>
       </c>
       <c r="Q88" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="R88" s="82" t="s">
         <v>810</v>
@@ -11764,7 +11758,7 @@
         <v>830</v>
       </c>
       <c r="O104" s="82" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="P104" s="82"/>
       <c r="Q104" s="82" t="s">
@@ -12082,7 +12076,7 @@
         <v>848</v>
       </c>
       <c r="K112" s="82" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="L112" s="82"/>
       <c r="M112" s="82" t="s">
@@ -12232,7 +12226,7 @@
         <v>858</v>
       </c>
       <c r="F116" s="82" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G116" s="82" t="s">
         <v>680</v>
@@ -12263,7 +12257,7 @@
         <v>454</v>
       </c>
       <c r="Q116" s="82" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="R116" s="82"/>
       <c r="S116" s="91"/>
@@ -26283,67 +26277,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="63" priority="56">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="62" priority="55">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="56">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="61" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:R11">
     <cfRule type="expression" dxfId="60" priority="53">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="54">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="59" priority="52">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:R15">
     <cfRule type="expression" dxfId="58" priority="51">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="52">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="57" priority="50">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:R19">
     <cfRule type="expression" dxfId="56" priority="49">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="50">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
     <cfRule type="expression" dxfId="54" priority="63">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="64">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="53" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:R27">
     <cfRule type="expression" dxfId="52" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="48">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:R31">
+    <cfRule type="expression" dxfId="51" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:R31">
     <cfRule type="expression" dxfId="50" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="46">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:R35">
     <cfRule type="expression" dxfId="48" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
@@ -26355,27 +26349,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="45" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="44" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="40">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:R51">
     <cfRule type="expression" dxfId="42" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="41" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
     <cfRule type="expression" dxfId="40" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -26387,27 +26381,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
+    <cfRule type="expression" dxfId="37" priority="32">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="36" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:R67">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:R67">
     <cfRule type="expression" dxfId="34" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:R71">
     <cfRule type="expression" dxfId="32" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
@@ -26419,19 +26413,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="28" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="24">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:R83">
     <cfRule type="expression" dxfId="26" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -26443,19 +26437,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="23" priority="62">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="22" priority="61">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="62">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203:R203">
+    <cfRule type="expression" dxfId="21" priority="60">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203:R203">
     <cfRule type="expression" dxfId="20" priority="59">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
@@ -26467,35 +26461,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243 D247:R247">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D251:R251 D255:R255 D259:R259 D263:R263">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D251:R251 D255:R255 D259:R259 D263:R263">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D267:R267 D271:R271">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D267:R267 D271:R271">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D275:R275 D279:R279 D283:R283 D287:R287">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D275:R275 D279:R279 D283:R283 D287:R287">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D291:R291 D295:R295">
@@ -26507,35 +26501,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299:R299 D303:R303 D307:R307 D311:R311">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D315:R315 D319:R319">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D315:R315 D319:R319">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D323:R323 D327:R327 D331:R331 D335:R335">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D323:R323 D327:R327 D331:R331 D335:R335">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D339:R339 D343:R343">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D339:R339 D343:R343">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21019B86-5A7F-49F6-B86C-55E1E2C1939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A86F2C5-8F17-4D0C-9CA0-21E45B4A4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23205" yWindow="2475" windowWidth="19845" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4404,10 +4404,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>閩拼方案</t>
-  </si>
-  <si>
-    <t>BP</t>
+    <t>方音符號</t>
+  </si>
+  <si>
+    <t>DBL</t>
   </si>
 </sst>
 </file>

--- a/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《歸去來辭》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A86F2C5-8F17-4D0C-9CA0-21E45B4A4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC7CB50-030A-4C03-9C3F-8C7EC4DDFF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23205" yWindow="2475" windowWidth="19845" windowHeight="11295" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -4404,10 +4404,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方音符號</t>
-  </si>
-  <si>
-    <t>DBL</t>
+    <t>白話字</t>
+  </si>
+  <si>
+    <t>POJ</t>
   </si>
 </sst>
 </file>
